--- a/project7/forecast_produce_sales.xlsx
+++ b/project7/forecast_produce_sales.xlsx
@@ -387,19 +387,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>22016606.8109407</v>
+        <v>21539936.0074994</v>
       </c>
       <c r="D2" s="0">
-        <v>24625088.7197032</v>
+        <v>23479964.5573357</v>
       </c>
       <c r="E2" s="0">
-        <v>23722201.4546371</v>
+        <v>22808452.4929323</v>
       </c>
       <c r="F2" s="0">
-        <v>20311012.1672444</v>
+        <v>20271419.5220664</v>
       </c>
       <c r="G2" s="0">
-        <v>19408124.9021783</v>
+        <v>19599907.4576631</v>
       </c>
     </row>
     <row r="3">
@@ -410,19 +410,19 @@
         <v>2</v>
       </c>
       <c r="C3" s="0">
-        <v>20870321.9554186</v>
+        <v>20413770.6013595</v>
       </c>
       <c r="D3" s="0">
-        <v>24003317.681753</v>
+        <v>22357792.7025973</v>
       </c>
       <c r="E3" s="0">
-        <v>22918877.7501163</v>
+        <v>21684898.3296985</v>
       </c>
       <c r="F3" s="0">
-        <v>18821766.1607208</v>
+        <v>19142642.8730206</v>
       </c>
       <c r="G3" s="0">
-        <v>17737326.2290842</v>
+        <v>18469748.5001218</v>
       </c>
     </row>
     <row r="4">
@@ -433,19 +433,19 @@
         <v>3</v>
       </c>
       <c r="C4" s="0">
-        <v>24045144.139261</v>
+        <v>24325953.0976278</v>
       </c>
       <c r="D4" s="0">
-        <v>27777018.8237788</v>
+        <v>26761721.2135591</v>
       </c>
       <c r="E4" s="0">
-        <v>26485285.8368047</v>
+        <v>25918616.2623073</v>
       </c>
       <c r="F4" s="0">
-        <v>21605002.4417173</v>
+        <v>22733289.9329483</v>
       </c>
       <c r="G4" s="0">
-        <v>20313269.4547432</v>
+        <v>21890184.9816965</v>
       </c>
     </row>
     <row r="5">
@@ -456,19 +456,19 @@
         <v>4</v>
       </c>
       <c r="C5" s="0">
-        <v>22401006.6083678</v>
+        <v>22993466.3485849</v>
       </c>
       <c r="D5" s="0">
-        <v>26602314.293153</v>
+        <v>25403233.8261656</v>
       </c>
       <c r="E5" s="0">
-        <v>25148094.0463212</v>
+        <v>24569128.6096528</v>
       </c>
       <c r="F5" s="0">
-        <v>19653919.1704144</v>
+        <v>21417804.087517</v>
       </c>
       <c r="G5" s="0">
-        <v>18199698.9235826</v>
+        <v>20583698.8710042</v>
       </c>
     </row>
     <row r="6">
@@ -479,19 +479,19 @@
         <v>5</v>
       </c>
       <c r="C6" s="0">
-        <v>26134594.6704716</v>
+        <v>26691951.4191559</v>
       </c>
       <c r="D6" s="0">
-        <v>30771677.1409952</v>
+        <v>29608731.6736688</v>
       </c>
       <c r="E6" s="0">
-        <v>29166619.9252895</v>
+        <v>28599131.515834</v>
       </c>
       <c r="F6" s="0">
-        <v>23102569.4156537</v>
+        <v>24784771.3224779</v>
       </c>
       <c r="G6" s="0">
-        <v>21497512.199948</v>
+        <v>23775171.164643</v>
       </c>
     </row>
     <row r="7">
@@ -502,19 +502,19 @@
         <v>6</v>
       </c>
       <c r="C7" s="0">
-        <v>25975297.4338319</v>
+        <v>26989964.0105518</v>
       </c>
       <c r="D7" s="0">
-        <v>31006319.41921</v>
+        <v>30055322.4976857</v>
       </c>
       <c r="E7" s="0">
-        <v>29264905.8922055</v>
+        <v>28994294.191682</v>
       </c>
       <c r="F7" s="0">
-        <v>22685688.9754582</v>
+        <v>24985633.8294216</v>
       </c>
       <c r="G7" s="0">
-        <v>20944275.4484537</v>
+        <v>23924605.523418</v>
       </c>
     </row>
     <row r="8">
@@ -525,19 +525,19 @@
         <v>7</v>
       </c>
       <c r="C8" s="0">
-        <v>25319113.8244152</v>
+        <v>26948630.7647638</v>
       </c>
       <c r="D8" s="0">
-        <v>30716720.9976613</v>
+        <v>30120930.2901846</v>
       </c>
       <c r="E8" s="0">
-        <v>28848419.45331</v>
+        <v>29022885.9323318</v>
       </c>
       <c r="F8" s="0">
-        <v>21789808.1955203</v>
+        <v>24874375.5971958</v>
       </c>
       <c r="G8" s="0">
-        <v>19921506.651169</v>
+        <v>23776331.2393431</v>
       </c>
     </row>
     <row r="9">
@@ -548,19 +548,19 @@
         <v>8</v>
       </c>
       <c r="C9" s="0">
-        <v>22614678.4558968</v>
+        <v>24091579.3491059</v>
       </c>
       <c r="D9" s="0">
-        <v>28355091.6576834</v>
+        <v>27023985.6473797</v>
       </c>
       <c r="E9" s="0">
-        <v>26368132.8987594</v>
+        <v>26008976.7666138</v>
       </c>
       <c r="F9" s="0">
-        <v>18861224.0130343</v>
+        <v>22174181.931598</v>
       </c>
       <c r="G9" s="0">
-        <v>16874265.2541102</v>
+        <v>21159173.0508322</v>
       </c>
     </row>
     <row r="10">
@@ -571,19 +571,19 @@
         <v>9</v>
       </c>
       <c r="C10" s="0">
-        <v>19576596.3501696</v>
+        <v>20523492.4086428</v>
       </c>
       <c r="D10" s="0">
-        <v>25640599.214852</v>
+        <v>23101144.3982264</v>
       </c>
       <c r="E10" s="0">
-        <v>23541634.700874</v>
+        <v>22208928.4517215</v>
       </c>
       <c r="F10" s="0">
-        <v>15611557.9994652</v>
+        <v>18838056.3655641</v>
       </c>
       <c r="G10" s="0">
-        <v>13512593.4854872</v>
+        <v>17945840.4190592</v>
       </c>
     </row>
     <row r="11">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="C11" s="0">
-        <v>20081244.0178079</v>
+        <v>20011748.6685998</v>
       </c>
       <c r="D11" s="0">
-        <v>26452380.4936107</v>
+        <v>22600389.9552539</v>
       </c>
       <c r="E11" s="0">
-        <v>24247106.2424545</v>
+        <v>21704370.2268084</v>
       </c>
       <c r="F11" s="0">
-        <v>15915381.7931612</v>
+        <v>18319127.1103912</v>
       </c>
       <c r="G11" s="0">
-        <v>13710107.5420051</v>
+        <v>17423107.3819458</v>
       </c>
     </row>
     <row r="12">
@@ -617,19 +617,19 @@
         <v>11</v>
       </c>
       <c r="C12" s="0">
-        <v>20662709.3257462</v>
+        <v>21177435.4858385</v>
       </c>
       <c r="D12" s="0">
-        <v>27326852.8747649</v>
+        <v>23994279.1915141</v>
       </c>
       <c r="E12" s="0">
-        <v>25020158.5776839</v>
+        <v>23019270.5855534</v>
       </c>
       <c r="F12" s="0">
-        <v>16305260.0738086</v>
+        <v>19335600.3861236</v>
       </c>
       <c r="G12" s="0">
-        <v>13998565.7767276</v>
+        <v>18360591.7801629</v>
       </c>
     </row>
     <row r="13">
@@ -640,19 +640,19 @@
         <v>12</v>
       </c>
       <c r="C13" s="0">
-        <v>19964212.8698589</v>
+        <v>20855799.1096099</v>
       </c>
       <c r="D13" s="0">
-        <v>26909007.9165491</v>
+        <v>23704077.7781743</v>
       </c>
       <c r="E13" s="0">
-        <v>24505170.2724822</v>
+        <v>22718188.4267598</v>
       </c>
       <c r="F13" s="0">
-        <v>15423255.4672357</v>
+        <v>18993409.79246</v>
       </c>
       <c r="G13" s="0">
-        <v>13019417.8231688</v>
+        <v>18007520.4410455</v>
       </c>
     </row>
   </sheetData>
